--- a/biology/Médecine/Hôpital_San_Raffaele_(Milan)/Hôpital_San_Raffaele_(Milan).xlsx
+++ b/biology/Médecine/Hôpital_San_Raffaele_(Milan)/Hôpital_San_Raffaele_(Milan).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Raffaele_(Milan)</t>
+          <t>Hôpital_San_Raffaele_(Milan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital San Raffaele (Ospedale San Raffaele HSR) ou l’Institut scientifique universitaire San Raffaele est un centre hospitalier universitaire italien. Il est situé à cheval sur les communes de Segrate et de Milan. Il est rattaché à l'université Vie-Santé Saint-Raphaël.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Raffaele_(Milan)</t>
+          <t>Hôpital_San_Raffaele_(Milan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital San Raffaele a notamment accueilli Silvio Berlusconi lors de son agression, en 2009. En mai et juin 2023, il y est hospitalité à plusieurs reprises pour une pneumonie et une leucémie. Il y meurt au matin du 12 juin 2023, à l’âge de 86 ans.
 </t>
